--- a/BSX.xlsx
+++ b/BSX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE20C79-D6A2-4CE0-A974-8A228B2C3CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BAFCB3-C527-4498-AC82-8DEFB3D9B766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2C864FC3-FEC7-42EE-9237-2FCEAC75C444}"/>
+    <workbookView xWindow="13560" yWindow="1035" windowWidth="15315" windowHeight="14160" activeTab="1" xr2:uid="{2C864FC3-FEC7-42EE-9237-2FCEAC75C444}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,152 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={30409D3F-9CF9-4B46-8072-281C19E9F022}</author>
+    <author>tc={79DC0591-EC90-4017-BFD0-351C3B1133DD}</author>
+    <author>tc={82B03791-5949-4708-A8A8-5A58D05394CF}</author>
+    <author>tc={04BF9876-FECE-4384-860E-D3E978EFB5F7}</author>
+    <author>tc={05753B19-DA19-48CC-83E6-9961EE38CCC7}</author>
+    <author>tc={E3CD24C9-E315-4FCD-A96F-F0C1DF8B18FB}</author>
+    <author>tc={F9A9B400-FD56-46F1-A999-F3863E8B098D}</author>
+    <author>tc={CEF0FAB3-F6F5-460A-AE89-3FBBD1E2FFE2}</author>
+    <author>tc={22A94FB0-F6AA-4150-948D-DF7F35F4C88E}</author>
+    <author>tc={B21A431B-F418-4B15-B7AB-649C25C23DB8}</author>
+    <author>tc={69E4CD7C-322B-4EC0-B038-B58AD75F670C}</author>
+    <author>tc={B07FEFAD-F079-43F3-83ED-A4030EA90C0A}</author>
+    <author>tc={79D06BB2-B1BC-4E1F-9817-9BF66216DC09}</author>
+    <author>tc={2BF8FCBD-B927-4CC9-84DA-06B311BBB9B3}</author>
+    <author>tc={B40894E5-17C2-46CF-AF9E-474DB11516D3}</author>
+  </authors>
+  <commentList>
+    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{30409D3F-9CF9-4B46-8072-281C19E9F022}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    669m adjusted</t>
+      </text>
+    </comment>
+    <comment ref="L15" authorId="1" shapeId="0" xr:uid="{79DC0591-EC90-4017-BFD0-351C3B1133DD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    773m adjusted</t>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="2" shapeId="0" xr:uid="{82B03791-5949-4708-A8A8-5A58D05394CF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    819 adjusted</t>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="3" shapeId="0" xr:uid="{04BF9876-FECE-4384-860E-D3E978EFB5F7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    781m adjusted</t>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="4" shapeId="0" xr:uid="{05753B19-DA19-48CC-83E6-9961EE38CCC7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    818 adj</t>
+      </text>
+    </comment>
+    <comment ref="L17" authorId="5" shapeId="0" xr:uid="{E3CD24C9-E315-4FCD-A96F-F0C1DF8B18FB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    665m adjusted</t>
+      </text>
+    </comment>
+    <comment ref="O17" authorId="6" shapeId="0" xr:uid="{F9A9B400-FD56-46F1-A999-F3863E8B098D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    671m adjusted</t>
+      </text>
+    </comment>
+    <comment ref="P17" authorId="7" shapeId="0" xr:uid="{CEF0FAB3-F6F5-460A-AE89-3FBBD1E2FFE2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    744 adjusted</t>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="8" shapeId="0" xr:uid="{22A94FB0-F6AA-4150-948D-DF7F35F4C88E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    530m adjusted</t>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="9" shapeId="0" xr:uid="{B21A431B-F418-4B15-B7AB-649C25C23DB8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    337 adjusted</t>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="10" shapeId="0" xr:uid="{69E4CD7C-322B-4EC0-B038-B58AD75F670C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    524m adjusted</t>
+      </text>
+    </comment>
+    <comment ref="L19" authorId="11" shapeId="0" xr:uid="{B07FEFAD-F079-43F3-83ED-A4030EA90C0A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    577m adjusted</t>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="12" shapeId="0" xr:uid="{79D06BB2-B1BC-4E1F-9817-9BF66216DC09}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    653m adjusted</t>
+      </text>
+    </comment>
+    <comment ref="O19" authorId="13" shapeId="0" xr:uid="{2BF8FCBD-B927-4CC9-84DA-06B311BBB9B3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    562m adjusted</t>
+      </text>
+    </comment>
+    <comment ref="P19" authorId="14" shapeId="0" xr:uid="{B40894E5-17C2-46CF-AF9E-474DB11516D3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    649m adjusted</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Price</t>
   </si>
@@ -123,13 +267,106 @@
   </si>
   <si>
     <t>Peripheral</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>OpInc</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Pretax</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Pharma</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>OLTA</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>OLTL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -141,6 +378,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -161,10 +411,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -177,8 +428,12 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -192,6 +447,67 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA6D2C2-1A1F-2D9B-537D-6439924D523D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="47625"/>
+          <a:ext cx="0" cy="8010525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{F2F5783F-A963-413A-92AE-FB692530CEE5}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,6 +805,56 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K15" dT="2022-08-07T04:48:12.05" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{30409D3F-9CF9-4B46-8072-281C19E9F022}">
+    <text>669m adjusted</text>
+  </threadedComment>
+  <threadedComment ref="L15" dT="2022-08-07T04:42:30.26" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{79DC0591-EC90-4017-BFD0-351C3B1133DD}">
+    <text>773m adjusted</text>
+  </threadedComment>
+  <threadedComment ref="N15" dT="2022-08-07T04:52:48.27" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{82B03791-5949-4708-A8A8-5A58D05394CF}">
+    <text>819 adjusted</text>
+  </threadedComment>
+  <threadedComment ref="O15" dT="2022-08-07T04:47:33.30" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{04BF9876-FECE-4384-860E-D3E978EFB5F7}">
+    <text>781m adjusted</text>
+  </threadedComment>
+  <threadedComment ref="P15" dT="2022-08-07T04:41:45.60" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{05753B19-DA19-48CC-83E6-9961EE38CCC7}">
+    <text>818 adj</text>
+  </threadedComment>
+  <threadedComment ref="L17" dT="2022-08-07T04:43:03.22" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{E3CD24C9-E315-4FCD-A96F-F0C1DF8B18FB}">
+    <text>665m adjusted</text>
+  </threadedComment>
+  <threadedComment ref="O17" dT="2022-08-07T04:47:45.61" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{F9A9B400-FD56-46F1-A999-F3863E8B098D}">
+    <text>671m adjusted</text>
+  </threadedComment>
+  <threadedComment ref="P17" dT="2022-08-07T04:41:59.95" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{CEF0FAB3-F6F5-460A-AE89-3FBBD1E2FFE2}">
+    <text>744 adjusted</text>
+  </threadedComment>
+  <threadedComment ref="I19" dT="2022-08-07T04:58:09.50" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{22A94FB0-F6AA-4150-948D-DF7F35F4C88E}">
+    <text>530m adjusted</text>
+  </threadedComment>
+  <threadedComment ref="J19" dT="2022-08-07T04:53:48.86" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{B21A431B-F418-4B15-B7AB-649C25C23DB8}">
+    <text>337 adjusted</text>
+  </threadedComment>
+  <threadedComment ref="K19" dT="2022-08-07T04:48:27.02" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{69E4CD7C-322B-4EC0-B038-B58AD75F670C}">
+    <text>524m adjusted</text>
+  </threadedComment>
+  <threadedComment ref="L19" dT="2022-08-07T04:43:10.91" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{B07FEFAD-F079-43F3-83ED-A4030EA90C0A}">
+    <text>577m adjusted</text>
+  </threadedComment>
+  <threadedComment ref="N19" dT="2022-08-07T04:53:12.53" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{79D06BB2-B1BC-4E1F-9817-9BF66216DC09}">
+    <text>653m adjusted</text>
+  </threadedComment>
+  <threadedComment ref="O19" dT="2022-08-07T04:47:51.70" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{2BF8FCBD-B927-4CC9-84DA-06B311BBB9B3}">
+    <text>562m adjusted</text>
+  </threadedComment>
+  <threadedComment ref="P19" dT="2022-08-07T04:42:04.05" personId="{F2F5783F-A963-413A-92AE-FB692530CEE5}" id="{B40894E5-17C2-46CF-AF9E-474DB11516D3}">
+    <text>649m adjusted</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEEADA3-EE2B-46BC-833A-8FA6B355DA7C}">
   <dimension ref="O2:Q7"/>
@@ -551,14 +917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C04D50-EACF-4D85-BAA6-90718FFFCCB2}">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C04D50-EACF-4D85-BAA6-90718FFFCCB2}">
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -569,7 +935,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -623,31 +989,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
-        <v>551</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="P3" s="1">
-        <v>560</v>
-      </c>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" s="2">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -655,21 +1017,34 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="I4" s="3">
+        <v>475</v>
+      </c>
+      <c r="J4" s="3">
+        <v>515</v>
+      </c>
+      <c r="K4" s="3">
+        <v>499</v>
+      </c>
       <c r="L4" s="3">
-        <v>397</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+        <v>551</v>
+      </c>
+      <c r="M4" s="3">
+        <v>533</v>
+      </c>
+      <c r="N4" s="3">
+        <v>558</v>
+      </c>
+      <c r="O4" s="1">
+        <v>531</v>
+      </c>
       <c r="P4" s="1">
-        <v>450</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -677,21 +1052,34 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="I5" s="3">
+        <v>350</v>
+      </c>
+      <c r="J5" s="3">
+        <v>376</v>
+      </c>
+      <c r="K5" s="3">
+        <v>361</v>
+      </c>
       <c r="L5" s="3">
-        <v>247</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+        <v>397</v>
+      </c>
+      <c r="M5" s="3">
+        <v>384</v>
+      </c>
+      <c r="N5" s="3">
+        <v>441</v>
+      </c>
+      <c r="O5" s="1">
+        <v>413</v>
+      </c>
       <c r="P5" s="1">
-        <v>239</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -699,21 +1087,34 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="I6" s="3">
+        <v>216</v>
+      </c>
+      <c r="J6" s="3">
+        <v>232</v>
+      </c>
+      <c r="K6" s="3">
+        <v>198</v>
+      </c>
       <c r="L6" s="3">
-        <v>1410</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+        <v>247</v>
+      </c>
+      <c r="M6" s="3">
+        <v>221</v>
+      </c>
+      <c r="N6" s="3">
+        <v>244</v>
+      </c>
+      <c r="O6" s="1">
+        <v>209</v>
+      </c>
       <c r="P6" s="1">
-        <v>1517</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -721,43 +1122,957 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="I7" s="3">
+        <f>465+76+586</f>
+        <v>1127</v>
+      </c>
+      <c r="J7" s="3">
+        <f>451+85+585</f>
+        <v>1121</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1248</v>
+      </c>
       <c r="L7" s="3">
+        <v>1410</v>
+      </c>
+      <c r="M7" s="3">
+        <f>512+86+744</f>
+        <v>1342</v>
+      </c>
+      <c r="N7" s="3">
+        <f>514+100+808</f>
+        <v>1422</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1407</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>416</v>
+      </c>
+      <c r="J8" s="3">
+        <v>429</v>
+      </c>
+      <c r="K8" s="3">
+        <v>433</v>
+      </c>
+      <c r="L8" s="3">
         <v>473</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="P7" s="1">
+      <c r="M8" s="3">
+        <v>452</v>
+      </c>
+      <c r="N8" s="3">
+        <v>462</v>
+      </c>
+      <c r="O8" s="1">
+        <v>465</v>
+      </c>
+      <c r="P8" s="1">
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5">
-        <f>SUM(L3:L7)</f>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <f>SUM(I3:I8)</f>
+        <v>2658</v>
+      </c>
+      <c r="J9" s="5">
+        <f>SUM(J3:J8)</f>
+        <v>2709</v>
+      </c>
+      <c r="K9" s="5">
+        <f>SUM(K3:K8)</f>
+        <v>2752</v>
+      </c>
+      <c r="L9" s="5">
+        <f>SUM(L4:L8)</f>
         <v>3078</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="P8" s="5">
-        <f>SUM(P3:P7)</f>
+      <c r="M9" s="5">
+        <f>SUM(M4:M8)</f>
+        <v>2932</v>
+      </c>
+      <c r="N9" s="5">
+        <f>SUM(N4:N8)</f>
+        <v>3127</v>
+      </c>
+      <c r="O9" s="5">
+        <f>SUM(O4:O8)</f>
+        <v>3025</v>
+      </c>
+      <c r="P9" s="5">
+        <f>SUM(P4:P8)</f>
         <v>3244</v>
       </c>
     </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <f>869-30-15-6</f>
+        <v>818</v>
+      </c>
+      <c r="J10" s="3">
+        <f>1000-25-17-7</f>
+        <v>951</v>
+      </c>
+      <c r="K10" s="3">
+        <f>894-14-18-7</f>
+        <v>855</v>
+      </c>
+      <c r="L10" s="1">
+        <f>945+7+22+8</f>
+        <v>982</v>
+      </c>
+      <c r="M10" s="3">
+        <v>900</v>
+      </c>
+      <c r="N10" s="3">
+        <f>971-32-20-9</f>
+        <v>910</v>
+      </c>
+      <c r="O10" s="1">
+        <f>955-27-18-10</f>
+        <v>900</v>
+      </c>
+      <c r="P10" s="1">
+        <f>1011+23+17+11</f>
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <f>+I9-I10</f>
+        <v>1840</v>
+      </c>
+      <c r="J11" s="3">
+        <f>+J9-J10</f>
+        <v>1758</v>
+      </c>
+      <c r="K11" s="1">
+        <f>+K9-K10</f>
+        <v>1897</v>
+      </c>
+      <c r="L11" s="1">
+        <f>+L9-L10</f>
+        <v>2096</v>
+      </c>
+      <c r="M11" s="1">
+        <f>+M9-M10</f>
+        <v>2032</v>
+      </c>
+      <c r="N11" s="3">
+        <f>+N9-N10</f>
+        <v>2217</v>
+      </c>
+      <c r="O11" s="1">
+        <f>+O9-O10</f>
+        <v>2125</v>
+      </c>
+      <c r="P11" s="1">
+        <f>+P9-P10</f>
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>984</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1027</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1019</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1121</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1066</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1153</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1060</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>315</v>
+      </c>
+      <c r="J13" s="3">
+        <v>286</v>
+      </c>
+      <c r="K13" s="3">
+        <v>276</v>
+      </c>
+      <c r="L13" s="3">
+        <v>298</v>
+      </c>
+      <c r="M13" s="3">
+        <v>310</v>
+      </c>
+      <c r="N13" s="3">
+        <v>320</v>
+      </c>
+      <c r="O13" s="1">
+        <v>319</v>
+      </c>
+      <c r="P13" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="3">
+        <f>+I12+I13</f>
+        <v>1299</v>
+      </c>
+      <c r="J14" s="3">
+        <f>+J12+J13</f>
+        <v>1313</v>
+      </c>
+      <c r="K14" s="1">
+        <f>+K12+K13</f>
+        <v>1295</v>
+      </c>
+      <c r="L14" s="1">
+        <f>L13+L12</f>
+        <v>1419</v>
+      </c>
+      <c r="M14" s="3">
+        <f>+M12+M13</f>
+        <v>1376</v>
+      </c>
+      <c r="N14" s="3">
+        <f>+N12+N13</f>
+        <v>1473</v>
+      </c>
+      <c r="O14" s="1">
+        <f>+O12+O13</f>
+        <v>1379</v>
+      </c>
+      <c r="P14" s="1">
+        <f>P13+P12</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="3">
+        <f>+I11-I14</f>
+        <v>541</v>
+      </c>
+      <c r="J15" s="3">
+        <f>+J11-J14</f>
+        <v>445</v>
+      </c>
+      <c r="K15" s="1">
+        <f>+K11-K14</f>
+        <v>602</v>
+      </c>
+      <c r="L15" s="1">
+        <f>L11-L14</f>
+        <v>677</v>
+      </c>
+      <c r="M15" s="3">
+        <f>+M11-M14</f>
+        <v>656</v>
+      </c>
+      <c r="N15" s="3">
+        <f>+N11-N14</f>
+        <v>744</v>
+      </c>
+      <c r="O15" s="1">
+        <f>+O11-O14</f>
+        <v>746</v>
+      </c>
+      <c r="P15" s="1">
+        <f>P11-P14</f>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="2">
+        <f>-86-12+64-65</f>
+        <v>-99</v>
+      </c>
+      <c r="J16" s="2">
+        <f>-14-96+352-363</f>
+        <v>-121</v>
+      </c>
+      <c r="K16" s="2">
+        <f>-12-82+37</f>
+        <v>-57</v>
+      </c>
+      <c r="L16" s="2">
+        <v>-86</v>
+      </c>
+      <c r="M16" s="2">
+        <f>-86+181+14</f>
+        <v>109</v>
+      </c>
+      <c r="N16" s="2">
+        <f>-11-87+26</f>
+        <v>-72</v>
+      </c>
+      <c r="O16">
+        <f>-12-279-31+194</f>
+        <v>-128</v>
+      </c>
+      <c r="P16">
+        <f>-11-64-14</f>
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="3">
+        <f>+I15+I16</f>
+        <v>442</v>
+      </c>
+      <c r="J17" s="3">
+        <f>+J15+J16</f>
+        <v>324</v>
+      </c>
+      <c r="K17" s="3">
+        <f>+K15+K16</f>
+        <v>545</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" ref="L17" si="0">+L15+L16</f>
+        <v>591</v>
+      </c>
+      <c r="M17" s="1">
+        <f>+M15+M16</f>
+        <v>765</v>
+      </c>
+      <c r="N17" s="3">
+        <f>+N15+N16</f>
+        <v>672</v>
+      </c>
+      <c r="O17" s="1">
+        <f>+O15+O16</f>
+        <v>618</v>
+      </c>
+      <c r="P17" s="1">
+        <f>+P15+P16</f>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="2">
+        <f>72+14</f>
+        <v>86</v>
+      </c>
+      <c r="J18" s="2">
+        <f>96+14</f>
+        <v>110</v>
+      </c>
+      <c r="K18" s="2">
+        <f>-16+14</f>
+        <v>-2</v>
+      </c>
+      <c r="L18" s="2">
+        <f>37+14</f>
+        <v>51</v>
+      </c>
+      <c r="M18" s="2">
+        <f>64+14</f>
+        <v>78</v>
+      </c>
+      <c r="N18" s="2">
+        <f>26+14</f>
+        <v>40</v>
+      </c>
+      <c r="O18">
+        <f>45+14</f>
+        <v>59</v>
+      </c>
+      <c r="P18">
+        <f>85+14</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="3">
+        <f>+I17-I18</f>
+        <v>356</v>
+      </c>
+      <c r="J19" s="3">
+        <f>+J17-J18</f>
+        <v>214</v>
+      </c>
+      <c r="K19" s="3">
+        <f>+K17-K18</f>
+        <v>547</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" ref="L19:O19" si="1">+L17-L18</f>
+        <v>540</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="1"/>
+        <v>687</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="1"/>
+        <v>632</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="1"/>
+        <v>559</v>
+      </c>
+      <c r="P19" s="1">
+        <f>+P17-P18</f>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" ref="I20:O20" si="2">+I19/I21</f>
+        <v>0.24879446502201411</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="2"/>
+        <v>0.14956667598546269</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="2"/>
+        <v>0.38230360637405647</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>0.37696335078534032</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="2"/>
+        <v>0.47854555586514352</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="2"/>
+        <v>0.44005013229355244</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="2"/>
+        <v>0.38862625139043377</v>
+      </c>
+      <c r="P20" s="7">
+        <f>+P19/P21</f>
+        <v>0.34358047016274867</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1430.9</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1430.8</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1430.8</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1432.5</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1435.6</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1436.2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1438.4</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1437.8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="8">
+        <f>M9/I9-1</f>
+        <v>0.10308502633559069</v>
+      </c>
+      <c r="N24" s="8">
+        <f>N9/J9-1</f>
+        <v>0.15430047988187523</v>
+      </c>
+      <c r="O24" s="8">
+        <f>O9/K9-1</f>
+        <v>9.920058139534893E-2</v>
+      </c>
+      <c r="P24" s="8">
+        <f>P9/L9-1</f>
+        <v>5.3931124106562756E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="8">
+        <f>+I11/I9</f>
+        <v>0.6922498118886381</v>
+      </c>
+      <c r="J25" s="8">
+        <f>+J11/J9</f>
+        <v>0.64894795127353266</v>
+      </c>
+      <c r="K25" s="8">
+        <f>+K11/K9</f>
+        <v>0.68931686046511631</v>
+      </c>
+      <c r="L25" s="8">
+        <f>+L11/L9</f>
+        <v>0.68096166341780373</v>
+      </c>
+      <c r="M25" s="8">
+        <f>+M11/M9</f>
+        <v>0.69304229195088674</v>
+      </c>
+      <c r="N25" s="8">
+        <f>+N11/N9</f>
+        <v>0.70898624880076755</v>
+      </c>
+      <c r="O25" s="8">
+        <f>+O11/O9</f>
+        <v>0.7024793388429752</v>
+      </c>
+      <c r="P25" s="8">
+        <f>+P11/P9</f>
+        <v>0.6726263871763255</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="1">
+        <f>+P28-P39</f>
+        <v>-8696</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="P28" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="P29" s="1">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="P30" s="1">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="P31" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="P32" s="1">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="P33" s="1">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="P34" s="1">
+        <f>12883+6349</f>
+        <v>19232</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="P35" s="1">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="P36" s="1">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="P37" s="1">
+        <f>SUM(P28:P36)</f>
+        <v>32189</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="P39" s="1">
+        <f>170+8802</f>
+        <v>8972</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="P40" s="1">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="P41" s="1">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="P42" s="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="P43" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" s="1">
+        <v>17251</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P46" s="1">
+        <f>SUM(P39:P45)</f>
+        <v>32189</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B498B707-EBD4-4E6A-889E-F399B637C3CC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>